--- a/Dataset/Data.xlsx
+++ b/Dataset/Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="66">
   <si>
     <t>name</t>
   </si>
@@ -188,6 +188,30 @@
   </si>
   <si>
     <t>ж</t>
+  </si>
+  <si>
+    <t>Сурок1</t>
+  </si>
+  <si>
+    <t>Сурок2</t>
+  </si>
+  <si>
+    <t>Сурок3</t>
+  </si>
+  <si>
+    <t>name - кличка животного</t>
+  </si>
+  <si>
+    <t>keepers - список ухаживающих людей (ФИО, ДР, опыт)</t>
+  </si>
+  <si>
+    <t>guardians - фио/название организации, являющейся опекуном</t>
+  </si>
+  <si>
+    <t>Иванов Иван Иванович, 23.12.1988, 6 лет; Николаев  Николай Николаевич, 12.03.1986, 5 лет;</t>
+  </si>
+  <si>
+    <t>Дмитриев Дмитрий Дмитриевич; ОАО Пушистые хомячки</t>
   </si>
 </sst>
 </file>
@@ -223,8 +247,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -529,15 +555,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
@@ -552,7 +578,7 @@
     <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -663,6 +689,9 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
       <c r="B3" t="s">
         <v>36</v>
       </c>
@@ -681,17 +710,35 @@
       <c r="G3" t="s">
         <v>15</v>
       </c>
+      <c r="H3" s="1">
+        <v>40831</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
       <c r="J3">
         <v>5.0999999999999996</v>
       </c>
       <c r="K3">
         <v>52</v>
       </c>
+      <c r="N3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O3" t="s">
+        <v>65</v>
+      </c>
+      <c r="P3" t="s">
+        <v>60</v>
+      </c>
       <c r="Q3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
       <c r="B4" t="s">
         <v>36</v>
       </c>
@@ -699,28 +746,40 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>15</v>
+      </c>
+      <c r="H4" s="1">
+        <v>40767</v>
+      </c>
+      <c r="I4" t="s">
+        <v>57</v>
       </c>
       <c r="J4">
-        <v>7</v>
+        <v>4.8</v>
       </c>
       <c r="K4">
-        <v>65</v>
-      </c>
-      <c r="L4">
-        <v>28</v>
+        <v>47</v>
+      </c>
+      <c r="P4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
       <c r="B5" t="s">
         <v>36</v>
       </c>
@@ -728,19 +787,31 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>15</v>
+      </c>
+      <c r="H5" s="1">
+        <v>43078</v>
+      </c>
+      <c r="I5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="K5">
+        <v>15</v>
       </c>
       <c r="Q5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -751,25 +822,34 @@
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>52</v>
+        <v>39</v>
+      </c>
+      <c r="H6" s="1">
+        <v>41480</v>
+      </c>
+      <c r="I6" t="s">
+        <v>57</v>
       </c>
       <c r="J6">
-        <v>6.26</v>
+        <v>7</v>
       </c>
       <c r="K6">
-        <v>44</v>
+        <v>65</v>
+      </c>
+      <c r="L6">
+        <v>28</v>
       </c>
       <c r="Q6" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -780,28 +860,34 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>43</v>
+      </c>
+      <c r="H7" s="1">
+        <v>39937</v>
       </c>
       <c r="I7" t="s">
         <v>56</v>
       </c>
       <c r="J7">
-        <v>35</v>
+        <v>1.4</v>
       </c>
       <c r="K7">
-        <v>82</v>
+        <v>40</v>
+      </c>
+      <c r="L7">
+        <v>14</v>
       </c>
       <c r="Q7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -818,22 +904,110 @@
         <v>48</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="H8" s="1">
+        <v>39332</v>
       </c>
       <c r="I8" t="s">
         <v>57</v>
       </c>
       <c r="J8">
-        <v>13</v>
+        <v>6.26</v>
       </c>
       <c r="K8">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="Q8" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="1">
+        <v>34437</v>
+      </c>
+      <c r="I9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9">
+        <v>35</v>
+      </c>
+      <c r="K9">
+        <v>82</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="1">
+        <v>35872</v>
+      </c>
+      <c r="I10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10">
+        <v>13</v>
+      </c>
+      <c r="K10">
+        <v>56</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
